--- a/책 제본.xlsx
+++ b/책 제본.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\BOOK_Bind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC24F5B2-072F-410B-A6B0-5A943FA412EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848B1A72-C905-4180-A86E-9E202E897688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="13740" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,17 +26,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>코덱스 만들기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>리본을 이용한 노출 바인딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>코뎃스북을 이용한 작은 날개가 있는 앨범</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포켓이 있는 크라프트 노트 만들기 - X 모양 바인딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>싱글 섹션 바인딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캅틱 바인딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창이 뚫린 앨범 만들기 - ◇ 모양 바인딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끈을 이용한 노출 바이딩과 지그재그 모양으로 책등 꾸미기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방명록 만들기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캅틱 엔드벤드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>롱 스트치 / 링크 스티치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코덱스북 만들기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,27 +394,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:B5"/>
+  <dimension ref="A3:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A0AE1A-CCF1-45ED-8C0A-387D578F7787}">
+  <dimension ref="A3:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
